--- a/data/ml_hyperparameter.xlsx
+++ b/data/ml_hyperparameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5ED3F6-7005-420C-9F04-91C0A8517455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B96BD7-D4DA-4538-B952-439E865DE1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="-14100" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1442,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC09D712-DFB6-4760-91AB-9338CD8E59D1}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G36" sqref="F36:G36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
